--- a/biology/Zoologie/Hoploxypterus_cayanus/Hoploxypterus_cayanus.xlsx
+++ b/biology/Zoologie/Hoploxypterus_cayanus/Hoploxypterus_cayanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hoploxypterus cayanus est une espèce d'oiseaux appartenant à la famille des Charadriidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Congrès ornithologique international et Alan P. Peterson considèrent cette espèce comme très proche des pluviers, mais les autres autorités taxinomiques (Howard and Moore (2013), Handbook of the Birds of the World (2014), Clements (2014)) la considèrent comme un vanneau[1], d'où  le nom normalisé CINFO sous lequel elle est connue, Vanneau de Cayenne.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Congrès ornithologique international et Alan P. Peterson considèrent cette espèce comme très proche des pluviers, mais les autres autorités taxinomiques (Howard and Moore (2013), Handbook of the Birds of the World (2014), Clements (2014)) la considèrent comme un vanneau, d'où  le nom normalisé CINFO sous lequel elle est connue, Vanneau de Cayenne.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'étude phylogénique de B. C. Livezey (2010) montre que cette espèce est un taxon frère de tout le clade des Vanellus[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étude phylogénique de B. C. Livezey (2010) montre que cette espèce est un taxon frère de tout le clade des Vanellus.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit de l'est de la Colombie jusqu'au sud-est du Brésil.
 </t>
